--- a/Backend/Model Metrics/classification_report_rfc_Part2_rrt.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_Part2_rrt.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7945205479452054</v>
+        <v>0.9815724815724816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8619201725997843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8345323741007193</v>
+        <v>0.9178632969557725</v>
       </c>
       <c r="E2" t="n">
-        <v>66</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.864406779661017</v>
+        <v>0.2849162011173184</v>
       </c>
       <c r="C3" t="n">
         <v>0.7727272727272727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8159999999999998</v>
+        <v>0.4163265306122448</v>
       </c>
       <c r="E3" t="n">
         <v>66</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8559919436052367</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8559919436052367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8559919436052367</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8559919436052367</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8294636638031112</v>
+        <v>0.6332443413449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8257575757575757</v>
+        <v>0.8173237226635285</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8252661870503596</v>
+        <v>0.6670949137840086</v>
       </c>
       <c r="E5" t="n">
-        <v>132</v>
+        <v>993</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8294636638031112</v>
+        <v>0.9352690429923801</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8559919436052367</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8252661870503595</v>
+        <v>0.8845285269873205</v>
       </c>
       <c r="E6" t="n">
-        <v>132</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
